--- a/Docs/GRUPOS ACTUALIZADOS UNIDAD 2 Y 3.xlsx
+++ b/Docs/GRUPOS ACTUALIZADOS UNIDAD 2 Y 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDI-2_202202-A1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0A9E1-8809-45FF-9538-6135B0551E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C5AE2-C620-4823-AA8E-43C3F86F0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,10 +630,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,327 +648,327 @@
     <col min="10" max="10" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+    <row r="2" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="11" t="s">
-        <v>27</v>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="12" t="s">
-        <v>29</v>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="14" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="15" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="16" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="17" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/GRUPOS ACTUALIZADOS UNIDAD 2 Y 3.xlsx
+++ b/Docs/GRUPOS ACTUALIZADOS UNIDAD 2 Y 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDI-2_202202-A1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C5AE2-C620-4823-AA8E-43C3F86F0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1ACD0F-07BF-4D8A-866C-F58503810B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
